--- a/model_packages/hist_2014_2023/mnw2/wellratesdxhx_cy2014_jul2023_v02.xlsx
+++ b/model_packages/hist_2014_2023/mnw2/wellratesdxhx_cy2014_jul2023_v02.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interainc-my.sharepoint.com/personal/rweatherl_intera_com/Documents/Documents/GitHub/100HR3-Rebound/model_packages/hist_2014_2023/mnw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EF944C3-E103-4EA0-A0E6-0E1B15481DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6EF944C3-E103-4EA0-A0E6-0E1B15481DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD51100-B0D7-4F0A-B129-A643079420B6}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="1575" windowWidth="18270" windowHeight="17520"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wellratesdxhx_cy2014_jul2023_v0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -517,7 +530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,21 +1392,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A164"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM30" sqref="DM30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="98" max="109" width="9.140625" style="4"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="98" max="109" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3156,7 @@
         <v>-77.903286074489799</v>
       </c>
     </row>
-    <row r="6" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3493,7 +3506,7 @@
         <v>-1.7939188554433501</v>
       </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3856,7 @@
         <v>-46.599151721385198</v>
       </c>
     </row>
-    <row r="8" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>180.541795956268</v>
       </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4893,7 +4906,7 @@
         <v>-32.7380727588952</v>
       </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5256,7 @@
         <v>-27.488561384890001</v>
       </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5593,7 +5606,7 @@
         <v>-109.201192814659</v>
       </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5943,7 +5956,7 @@
         <v>-62.511191210458001</v>
       </c>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6293,7 +6306,7 @@
         <v>-38.036794486092298</v>
       </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6643,7 +6656,7 @@
         <v>-67.052952690912704</v>
       </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6993,7 +7006,7 @@
         <v>-74.2392516876928</v>
       </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7343,7 +7356,7 @@
         <v>-105.681980956114</v>
       </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -7693,7 +7706,7 @@
         <v>-128.35427745118099</v>
       </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8043,7 +8056,7 @@
         <v>-0.24776130676567701</v>
       </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8393,7 +8406,7 @@
         <v>-0.63741450040257996</v>
       </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8743,7 +8756,7 @@
         <v>99.9559961375558</v>
       </c>
     </row>
-    <row r="22" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9093,7 +9106,7 @@
         <v>138.385496568723</v>
       </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9443,7 +9456,7 @@
         <v>-107.141440363933</v>
       </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9793,7 +9806,7 @@
         <v>0.113684463577548</v>
       </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10143,7 +10156,7 @@
         <v>2.5418429579272201</v>
       </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10493,7 +10506,7 @@
         <v>-41.234612673169501</v>
       </c>
     </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10843,7 +10856,7 @@
         <v>-105.38391030563901</v>
       </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11193,7 +11206,7 @@
         <v>-0.46035491695741898</v>
       </c>
     </row>
-    <row r="29" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -11543,7 +11556,7 @@
         <v>2.0823428113726399</v>
       </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11893,7 +11906,7 @@
         <v>-1.2782480824165099</v>
       </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12243,7 +12256,7 @@
         <v>-141.56792888854901</v>
       </c>
     </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12593,7 +12606,7 @@
         <v>-84.471463959959905</v>
       </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:116" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12943,7 +12956,7 @@
         <v>-123.83278624027901</v>
       </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -13293,7 +13306,7 @@
         <v>-0.87394168187380605</v>
       </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -13643,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -13993,7 +14006,7 @@
         <v>188.22764719847899</v>
       </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14343,7 +14356,7 @@
         <v>-100.458601134425</v>
       </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14693,7 +14706,7 @@
         <v>-1.0401334701971601</v>
       </c>
     </row>
-    <row r="39" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -15043,7 +15056,7 @@
         <v>-0.61396936935329005</v>
       </c>
     </row>
-    <row r="40" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -15393,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -15743,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -16093,7 +16106,7 @@
         <v>-58.788421885980298</v>
       </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -16443,7 +16456,7 @@
         <v>115.430271070317</v>
       </c>
     </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -16793,7 +16806,7 @@
         <v>220.99600325164599</v>
       </c>
     </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -17143,7 +17156,7 @@
         <v>-102.64217318350499</v>
       </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -17493,7 +17506,7 @@
         <v>470.96676939860401</v>
       </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -17843,7 +17856,7 @@
         <v>224.677010936442</v>
       </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -18193,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18543,7 +18556,7 @@
         <v>-90.2047753819718</v>
       </c>
     </row>
-    <row r="50" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -18893,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -19243,7 +19256,7 @@
         <v>109.20058226437099</v>
       </c>
     </row>
-    <row r="52" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -19593,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -19943,7 +19956,7 @@
         <v>86.006509493400699</v>
       </c>
     </row>
-    <row r="54" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -20293,7 +20306,7 @@
         <v>-103.886963110153</v>
       </c>
     </row>
-    <row r="55" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -20643,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -20993,7 +21006,7 @@
         <v>-8.3821227903514792</v>
       </c>
     </row>
-    <row r="57" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -21343,7 +21356,7 @@
         <v>-21.994707785730501</v>
       </c>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -21693,7 +21706,7 @@
         <v>-89.209578412952496</v>
       </c>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -22043,7 +22056,7 @@
         <v>-104.282233366437</v>
       </c>
     </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -22393,7 +22406,7 @@
         <v>-117.421763998874</v>
       </c>
     </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -22743,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -23093,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -23443,7 +23456,7 @@
         <v>-96.260335245853895</v>
       </c>
     </row>
-    <row r="64" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -23793,7 +23806,7 @@
         <v>-84.488070927786495</v>
       </c>
     </row>
-    <row r="65" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -24143,7 +24156,7 @@
         <v>-81.193419465073504</v>
       </c>
     </row>
-    <row r="66" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -24493,7 +24506,7 @@
         <v>-105.89506300653601</v>
       </c>
     </row>
-    <row r="67" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -24843,7 +24856,7 @@
         <v>-53.661142679581097</v>
       </c>
     </row>
-    <row r="68" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -25193,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -25543,7 +25556,7 @@
         <v>222.91337537527099</v>
       </c>
     </row>
-    <row r="70" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -25893,7 +25906,7 @@
         <v>-103.250037049981</v>
       </c>
     </row>
-    <row r="71" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -26243,7 +26256,7 @@
         <v>69.918753631515798</v>
       </c>
     </row>
-    <row r="72" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -26593,7 +26606,7 @@
         <v>118.582542205929</v>
       </c>
     </row>
-    <row r="73" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -26943,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -27293,7 +27306,7 @@
         <v>142.25015778007199</v>
       </c>
     </row>
-    <row r="75" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -27643,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -27993,7 +28006,7 @@
         <v>155.531336079265</v>
       </c>
     </row>
-    <row r="77" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -28343,7 +28356,7 @@
         <v>-16.5194149153184</v>
       </c>
     </row>
-    <row r="78" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -28693,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -29043,7 +29056,7 @@
         <v>97.180434529481005</v>
       </c>
     </row>
-    <row r="80" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -29393,7 +29406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -29743,7 +29756,7 @@
         <v>111.544729039128</v>
       </c>
     </row>
-    <row r="82" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -30093,7 +30106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -30443,7 +30456,7 @@
         <v>106.362744526947</v>
       </c>
     </row>
-    <row r="84" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -30793,7 +30806,7 @@
         <v>-76.333072844474998</v>
       </c>
     </row>
-    <row r="85" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -31143,7 +31156,7 @@
         <v>-30.071433322153499</v>
       </c>
     </row>
-    <row r="86" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -31493,7 +31506,7 @@
         <v>-47.048028292933097</v>
       </c>
     </row>
-    <row r="87" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -31843,7 +31856,7 @@
         <v>-27.2542321844547</v>
       </c>
     </row>
-    <row r="88" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -32193,7 +32206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -32543,7 +32556,7 @@
         <v>215.86347331277199</v>
       </c>
     </row>
-    <row r="90" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -32893,7 +32906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -33243,7 +33256,7 @@
         <v>253.49254231671</v>
       </c>
     </row>
-    <row r="92" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -33593,7 +33606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -33943,7 +33956,7 @@
         <v>-63.054092526318101</v>
       </c>
     </row>
-    <row r="94" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -34293,7 +34306,7 @@
         <v>-136.790861327199</v>
       </c>
     </row>
-    <row r="95" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -34643,7 +34656,7 @@
         <v>-308.70924501940101</v>
       </c>
     </row>
-    <row r="96" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -34993,7 +35006,7 @@
         <v>-40.047702913799199</v>
       </c>
     </row>
-    <row r="97" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -35343,7 +35356,7 @@
         <v>-12.9148481265476</v>
       </c>
     </row>
-    <row r="98" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -35693,7 +35706,7 @@
         <v>-31.957178940873199</v>
       </c>
     </row>
-    <row r="99" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -36043,7 +36056,7 @@
         <v>-25.260052834631999</v>
       </c>
     </row>
-    <row r="100" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -36393,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -36743,7 +36756,7 @@
         <v>-25.599030354386301</v>
       </c>
     </row>
-    <row r="102" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -37093,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -37443,7 +37456,7 @@
         <v>128.79765907013899</v>
       </c>
     </row>
-    <row r="104" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -37793,7 +37806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -38143,7 +38156,7 @@
         <v>204.244823447101</v>
       </c>
     </row>
-    <row r="106" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -38493,7 +38506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -38843,7 +38856,7 @@
         <v>-79.752765006117599</v>
       </c>
     </row>
-    <row r="108" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -39193,7 +39206,7 @@
         <v>-0.35936989936490299</v>
       </c>
     </row>
-    <row r="109" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -39543,7 +39556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -39893,7 +39906,7 @@
         <v>-0.75598336628206397</v>
       </c>
     </row>
-    <row r="111" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -40243,7 +40256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -40593,7 +40606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -40943,7 +40956,7 @@
         <v>-223.956805817022</v>
       </c>
     </row>
-    <row r="114" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -41293,7 +41306,7 @@
         <v>-27.260215577274501</v>
       </c>
     </row>
-    <row r="115" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -41643,7 +41656,7 @@
         <v>-88.598295464865203</v>
       </c>
     </row>
-    <row r="116" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -41993,7 +42006,7 @@
         <v>-24.3039310840281</v>
       </c>
     </row>
-    <row r="117" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -42343,7 +42356,7 @@
         <v>-169.32330074918301</v>
       </c>
     </row>
-    <row r="118" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -42693,7 +42706,7 @@
         <v>-58.611118082420099</v>
       </c>
     </row>
-    <row r="119" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -43043,7 +43056,7 @@
         <v>-16.2191462838069</v>
       </c>
     </row>
-    <row r="120" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -43393,7 +43406,7 @@
         <v>-9.9661344568691597</v>
       </c>
     </row>
-    <row r="121" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -43743,7 +43756,7 @@
         <v>-9.1290700123749602</v>
       </c>
     </row>
-    <row r="122" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -44093,7 +44106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -44443,7 +44456,7 @@
         <v>200.296516846331</v>
       </c>
     </row>
-    <row r="124" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -44793,7 +44806,7 @@
         <v>-54.555843071238101</v>
       </c>
     </row>
-    <row r="125" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -45143,7 +45156,7 @@
         <v>-215.14070388214299</v>
       </c>
     </row>
-    <row r="126" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -45493,7 +45506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -45843,7 +45856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -46193,7 +46206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -46543,7 +46556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -46893,7 +46906,7 @@
         <v>-0.27108432775741897</v>
       </c>
     </row>
-    <row r="131" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -47243,7 +47256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -47593,7 +47606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -47943,7 +47956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -48293,7 +48306,7 @@
         <v>-44.234978897190899</v>
       </c>
     </row>
-    <row r="135" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -48643,7 +48656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -48993,7 +49006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -49343,7 +49356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -49693,7 +49706,7 @@
         <v>-93.259602691659794</v>
       </c>
     </row>
-    <row r="139" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -50043,7 +50056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -50393,7 +50406,7 @@
         <v>-52.093737980889998</v>
       </c>
     </row>
-    <row r="141" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -50743,7 +50756,7 @@
         <v>-41.419609410355299</v>
       </c>
     </row>
-    <row r="142" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -51093,7 +51106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -51443,7 +51456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -51793,7 +51806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -52143,7 +52156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -52493,7 +52506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -52843,7 +52856,7 @@
         <v>139.86058606390799</v>
       </c>
     </row>
-    <row r="148" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -53193,7 +53206,7 @@
         <v>-87.724109562876393</v>
       </c>
     </row>
-    <row r="149" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -53543,7 +53556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -53893,7 +53906,7 @@
         <v>164.70558681293301</v>
       </c>
     </row>
-    <row r="151" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -54243,7 +54256,7 @@
         <v>-0.70958154441367705</v>
       </c>
     </row>
-    <row r="152" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -54593,7 +54606,7 @@
         <v>-93.511271520267101</v>
       </c>
     </row>
-    <row r="153" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -54943,7 +54956,7 @@
         <v>-51.375852952563001</v>
       </c>
     </row>
-    <row r="154" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -55293,7 +55306,7 @@
         <v>-277.397906172901</v>
       </c>
     </row>
-    <row r="155" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -55643,7 +55656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -55993,7 +56006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -56343,7 +56356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -56693,7 +56706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -57043,7 +57056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -57393,7 +57406,7 @@
         <v>286.13024060830099</v>
       </c>
     </row>
-    <row r="161" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -57743,7 +57756,7 @@
         <v>216.52103597267001</v>
       </c>
     </row>
-    <row r="162" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -58093,7 +58106,7 @@
         <v>516.33737183099504</v>
       </c>
     </row>
-    <row r="163" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -58443,7 +58456,7 @@
         <v>217.28361328206</v>
       </c>
     </row>
-    <row r="164" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
